--- a/auto_results/test_results/legacy reports auto test result.xlsx
+++ b/auto_results/test_results/legacy reports auto test result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Report Module</t>
   </si>
@@ -59,6 +59,25 @@
   </si>
   <si>
     <t>Case Mix Index (CMI) Comparison.png</t>
+  </si>
+  <si>
+    <t>Case-Mix by Payer by Month</t>
+  </si>
+  <si>
+    <t>Case-Mix by Payer by Month.png</t>
+  </si>
+  <si>
+    <t>Medicare Case-Mix by Month</t>
+  </si>
+  <si>
+    <t>Medicare Case-Mix by Month.png</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: 
+</t>
   </si>
 </sst>
 </file>
@@ -118,7 +137,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="0" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -429,10 +448,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -441,7 +460,7 @@
     <col customWidth="1" max="2" min="2" width="43.109375"/>
     <col customWidth="1" max="3" min="3" width="16.5546875"/>
     <col customWidth="1" max="4" min="4" width="6.21875"/>
-    <col customWidth="1" max="5" min="5" width="67.33203125"/>
+    <col customWidth="1" max="5" min="5" width="47.21875"/>
     <col customWidth="1" max="6" min="6" width="55.6640625"/>
   </cols>
   <sheetData>
@@ -465,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row customHeight="1" ht="15.6" r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -482,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row customHeight="1" ht="15.6" r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -499,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row customHeight="1" ht="15.6" r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -516,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row customHeight="1" ht="15.6" r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -531,6 +550,193 @@
       </c>
       <c r="F5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -547,6 +753,17 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>

--- a/auto_results/test_results/legacy reports auto test result.xlsx
+++ b/auto_results/test_results/legacy reports auto test result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Report Module</t>
   </si>
@@ -73,11 +73,83 @@
     <t>Medicare Case-Mix by Month.png</t>
   </si>
   <si>
+    <t>Attending Physician Frequency by DRG</t>
+  </si>
+  <si>
+    <t>Attending Physician Frequency by DRG.png</t>
+  </si>
+  <si>
+    <t>Discharges by Grouper Version - DRG</t>
+  </si>
+  <si>
+    <t>Discharges by Grouper Version - DRG.png</t>
+  </si>
+  <si>
+    <t>DRG Change Condition Detail</t>
+  </si>
+  <si>
+    <t>DRG Change Condition Detail.png</t>
+  </si>
+  <si>
+    <t>DRG Change Impact</t>
+  </si>
+  <si>
+    <t>DRG Change Impact.png</t>
+  </si>
+  <si>
+    <t>DRG Clinical Profile</t>
+  </si>
+  <si>
+    <t>DRG Clinical Profile.png</t>
+  </si>
+  <si>
+    <t>DRG Contribution to CMI</t>
+  </si>
+  <si>
+    <t>DRG Contribution to CMI.png</t>
+  </si>
+  <si>
+    <t>Flag Management Setting Audit</t>
+  </si>
+  <si>
+    <t>Flag Management Setting Audit.png</t>
+  </si>
+  <si>
+    <t>DRG Frequency</t>
+  </si>
+  <si>
+    <t>DRG Frequency.png</t>
+  </si>
+  <si>
+    <t>DRG Illness Severity Score Comparison</t>
+  </si>
+  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>DRG Illness Severity Score Comparison.png</t>
   </si>
   <si>
     <t xml:space="preserve">Message: 
 </t>
+  </si>
+  <si>
+    <t>DRG Summary by Grouper Version - MDC</t>
+  </si>
+  <si>
+    <t>DRG Summary by Grouper Version - MDC.png</t>
+  </si>
+  <si>
+    <t>Medicare Post-Acute Care (PAC) DRG Frequency</t>
+  </si>
+  <si>
+    <t>Medicare Post-Acute Care (PAC) DRG Frequency.png</t>
+  </si>
+  <si>
+    <t>Summary by Primary Flag</t>
+  </si>
+  <si>
+    <t>Summary by Primary Flag.png</t>
   </si>
 </sst>
 </file>
@@ -137,7 +209,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="8" hidden="0" name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -448,10 +520,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -484,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="2" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -501,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="3" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -518,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="4" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -535,69 +607,69 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="5" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="6" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="7" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="8" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -608,13 +680,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -625,13 +697,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -642,16 +714,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -659,13 +731,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -676,13 +748,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -693,13 +765,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -710,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -727,16 +799,186 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -764,6 +1006,16 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId13"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E15" r:id="rId14"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E26" r:id="rId25"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
